--- a/data/scheduling_DNN/predict/0.5/result19.xlsx
+++ b/data/scheduling_DNN/predict/0.5/result19.xlsx
@@ -570,10 +570,10 @@
         <v>0.8800759315490723</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6410635709762573</v>
+        <v>0.4988104104995728</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05712690949440002</v>
+        <v>0.1453633904457092</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8676609992980957</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6418135166168213</v>
+        <v>0.3972684741020203</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05100708454847336</v>
+        <v>0.2212691307067871</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8921811580657959</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6434158086776733</v>
+        <v>0.4034161567687988</v>
       </c>
       <c r="W4" t="n">
-        <v>0.06188419833779335</v>
+        <v>0.2388912290334702</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9218039512634277</v>
       </c>
       <c r="V5" t="n">
-        <v>0.531548023223877</v>
+        <v>0.8711259961128235</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1522996872663498</v>
+        <v>0.002568255178630352</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8733429908752441</v>
       </c>
       <c r="V6" t="n">
-        <v>0.350784033536911</v>
+        <v>0.872563362121582</v>
       </c>
       <c r="W6" t="n">
-        <v>0.273067831993103</v>
+        <v>6.07820993536734e-07</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8694429397583008</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6548517942428589</v>
+        <v>0.8735634684562683</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04604936018586159</v>
+        <v>1.697875632089563e-05</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8633761405944824</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6825853586196899</v>
+        <v>0.4214529991149902</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0326853059232235</v>
+        <v>0.1952960640192032</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.929577112197876</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3507762253284454</v>
+        <v>0.488609790802002</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3350104987621307</v>
+        <v>0.1944521814584732</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8840320110321045</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4506650269031525</v>
+        <v>0.8850112557411194</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1878069490194321</v>
+        <v>9.589201681592385e-07</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8634829521179199</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6617556810379028</v>
+        <v>0.4032956063747406</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04069389030337334</v>
+        <v>0.2117723971605301</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8699610233306885</v>
       </c>
       <c r="V12" t="n">
-        <v>0.541418194770813</v>
+        <v>0.8627893328666687</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1079403907060623</v>
+        <v>5.143314410815947e-05</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8954930305480957</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4036012589931488</v>
+        <v>0.8628981113433838</v>
       </c>
       <c r="W13" t="n">
-        <v>0.2419575154781342</v>
+        <v>0.001062428811565042</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9049210548400879</v>
       </c>
       <c r="V14" t="n">
-        <v>0.782903790473938</v>
+        <v>0.4862973690032959</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01488821301609278</v>
+        <v>0.1752457916736603</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9159040451049805</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4033632874488831</v>
+        <v>0.3975464105606079</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2626980245113373</v>
+        <v>0.2686946392059326</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8634560108184814</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4506654441356659</v>
+        <v>0.3972888886928558</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1703960448503494</v>
+        <v>0.2173117846250534</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8665509223937988</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5769187211990356</v>
+        <v>0.8619260191917419</v>
       </c>
       <c r="W17" t="n">
-        <v>0.08388680964708328</v>
+        <v>2.138972922693938e-05</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8804380893707275</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3507681787014008</v>
+        <v>0.3972849249839783</v>
       </c>
       <c r="W18" t="n">
-        <v>0.2805501818656921</v>
+        <v>0.2334369868040085</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.850895881652832</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5619301795959473</v>
+        <v>0.3972594439983368</v>
       </c>
       <c r="W19" t="n">
-        <v>0.0835011750459671</v>
+        <v>0.2057860195636749</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8770761489868164</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7832762002944946</v>
+        <v>0.3975549638271332</v>
       </c>
       <c r="W20" t="n">
-        <v>0.008798430673778057</v>
+        <v>0.2299405634403229</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8848609924316406</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5155050158500671</v>
+        <v>0.866314709186554</v>
       </c>
       <c r="W21" t="n">
-        <v>0.1364238411188126</v>
+        <v>0.0003439646097831428</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5402131080627441</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5279086828231812</v>
+        <v>0.8729742169380188</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0001513988827355206</v>
+        <v>0.110729955136776</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5322661399841309</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5143253803253174</v>
+        <v>0.5111932754516602</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0003218708443455398</v>
+        <v>0.0004440656339284033</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5314500331878662</v>
       </c>
       <c r="V24" t="n">
-        <v>0.5027711391448975</v>
+        <v>0.4971147477626801</v>
       </c>
       <c r="W24" t="n">
-        <v>0.0008224789635278285</v>
+        <v>0.001178911770693958</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5492429733276367</v>
       </c>
       <c r="V25" t="n">
-        <v>0.9478923082351685</v>
+        <v>0.3972870707511902</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1589212864637375</v>
+        <v>0.02309059724211693</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5451080799102783</v>
       </c>
       <c r="V26" t="n">
-        <v>0.350296825170517</v>
+        <v>0.4227737784385681</v>
       </c>
       <c r="W26" t="n">
-        <v>0.03795142471790314</v>
+        <v>0.01496568135917187</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5172281265258789</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3800938129425049</v>
+        <v>0.8691168427467346</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01880582049489021</v>
+        <v>0.1238256692886353</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5154099464416504</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6824849843978882</v>
+        <v>0.4022003412246704</v>
       </c>
       <c r="W28" t="n">
-        <v>0.02791406773030758</v>
+        <v>0.01281641516834497</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5263199806213379</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8140085935592651</v>
+        <v>0.4846437573432922</v>
       </c>
       <c r="W29" t="n">
-        <v>0.08276473730802536</v>
+        <v>0.001736907637678087</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5287010669708252</v>
       </c>
       <c r="V30" t="n">
-        <v>0.3812652230262756</v>
+        <v>0.421977162361145</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02173732779920101</v>
+        <v>0.01138999219983816</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5156459808349609</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6533832550048828</v>
+        <v>0.5080188512802124</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01897155679762363</v>
+        <v>5.817310375277884e-05</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5232930183410645</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5605940818786621</v>
+        <v>0.5173828601837158</v>
       </c>
       <c r="W32" t="n">
-        <v>0.001391369383782148</v>
+        <v>3.492996984277852e-05</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5139598846435547</v>
       </c>
       <c r="V33" t="n">
-        <v>0.3507823050022125</v>
+        <v>0.4209629595279694</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02662692219018936</v>
+        <v>0.00864842813462019</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5158250331878662</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8073692321777344</v>
+        <v>0.4861604869365692</v>
       </c>
       <c r="W34" t="n">
-        <v>0.08499801903963089</v>
+        <v>0.0008799852803349495</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150289535522461</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4033866226673126</v>
+        <v>0.5138356685638428</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01246401015669107</v>
+        <v>1.423929006705293e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5662088394165039</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5028307437896729</v>
+        <v>0.4106141030788422</v>
       </c>
       <c r="W36" t="n">
-        <v>0.004016783088445663</v>
+        <v>0.02420972287654877</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5136969089508057</v>
       </c>
       <c r="V37" t="n">
-        <v>0.8078914880752563</v>
+        <v>0.511393666267395</v>
       </c>
       <c r="W37" t="n">
-        <v>0.08655045181512833</v>
+        <v>5.304927071847487e-06</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.513293981552124</v>
       </c>
       <c r="V38" t="n">
-        <v>0.350454181432724</v>
+        <v>0.8729768395423889</v>
       </c>
       <c r="W38" t="n">
-        <v>0.02651680074632168</v>
+        <v>0.1293717622756958</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5130608081817627</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5344407558441162</v>
+        <v>0.4936046302318573</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0004571021709125489</v>
+        <v>0.0003785428707487881</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5155019760131836</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4036816954612732</v>
+        <v>0.4100691080093384</v>
       </c>
       <c r="W40" t="n">
-        <v>0.01250377483665943</v>
+        <v>0.01111608929932117</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5130329132080078</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8036208152770996</v>
+        <v>0.4966208338737488</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08444132655858994</v>
+        <v>0.0002693563583306968</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4143729209899902</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4780525863170624</v>
+        <v>0.5162615776062012</v>
       </c>
       <c r="W42" t="n">
-        <v>0.004055099561810493</v>
+        <v>0.01038129813969135</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4289770126342773</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4035981297492981</v>
+        <v>0.8700041174888611</v>
       </c>
       <c r="W43" t="n">
-        <v>0.0006440876750275493</v>
+        <v>0.194504901766777</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3902828693389893</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3507879376411438</v>
+        <v>0.4037522077560425</v>
       </c>
       <c r="W44" t="n">
-        <v>0.001559849595651031</v>
+        <v>0.0001814230781747028</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3889229297637939</v>
       </c>
       <c r="V45" t="n">
-        <v>0.3507875204086304</v>
+        <v>0.4931087493896484</v>
       </c>
       <c r="W45" t="n">
-        <v>0.001454309443943202</v>
+        <v>0.01085468474775553</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3882210254669189</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6720672845840454</v>
+        <v>0.3991968929767609</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08056870102882385</v>
+        <v>0.0001204696673084982</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4150989055633545</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5416277647018433</v>
+        <v>0.5396902561187744</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01600955240428448</v>
+        <v>0.01552300434559584</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4001379013061523</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8119772672653198</v>
+        <v>0.4035610556602478</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1696116626262665</v>
+        <v>1.171798612631392e-05</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3861699104309082</v>
       </c>
       <c r="V49" t="n">
-        <v>0.5885621309280396</v>
+        <v>0.4226938188076019</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04096261039376259</v>
+        <v>0.001333995838649571</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3905720710754395</v>
       </c>
       <c r="V50" t="n">
-        <v>0.7835088968276978</v>
+        <v>0.3972795009613037</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1543993502855301</v>
+        <v>4.498961425269954e-05</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3868680000305176</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4775792956352234</v>
+        <v>0.5091210603713989</v>
       </c>
       <c r="W51" t="n">
-        <v>0.008228539489209652</v>
+        <v>0.01494581066071987</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.395888090133667</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5153118371963501</v>
+        <v>0.4215471148490906</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01426203176379204</v>
+        <v>0.0006583855720236897</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3869960308074951</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6446640491485596</v>
+        <v>0.8616716861724854</v>
       </c>
       <c r="W53" t="n">
-        <v>0.06639280915260315</v>
+        <v>0.225316971540451</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.435471773147583</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4781670570373535</v>
+        <v>0.5166178941726685</v>
       </c>
       <c r="W54" t="n">
-        <v>0.001822887221351266</v>
+        <v>0.006584692746400833</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3908400535583496</v>
       </c>
       <c r="V55" t="n">
-        <v>0.5032491683959961</v>
+        <v>0.5027016997337341</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01263580936938524</v>
+        <v>0.01251302752643824</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3882689476013184</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5145879983901978</v>
+        <v>0.4035794734954834</v>
       </c>
       <c r="W56" t="n">
-        <v>0.01595650240778923</v>
+        <v>0.0002344122040085495</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3859150409698486</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4033569991588593</v>
+        <v>0.4010908901691437</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0003042219032067806</v>
+        <v>0.000230306395678781</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3857488632202148</v>
       </c>
       <c r="V58" t="n">
-        <v>0.672245979309082</v>
+        <v>0.4228197932243347</v>
       </c>
       <c r="W58" t="n">
-        <v>0.08208059519529343</v>
+        <v>0.001374253886751831</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3867819309234619</v>
       </c>
       <c r="V59" t="n">
-        <v>0.946087121963501</v>
+        <v>0.4226793944835663</v>
       </c>
       <c r="W59" t="n">
-        <v>0.3128222823143005</v>
+        <v>0.00128862785641104</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.458975076675415</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4036053717136383</v>
+        <v>0.4220477044582367</v>
       </c>
       <c r="W60" t="n">
-        <v>0.003065804252400994</v>
+        <v>0.001363630872219801</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881490230560303</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5316058397293091</v>
+        <v>0.8698894381523132</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0205798577517271</v>
+        <v>0.2320738285779953</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9127650260925293</v>
       </c>
       <c r="V62" t="n">
-        <v>0.9441746473312378</v>
+        <v>0.3972838521003723</v>
       </c>
       <c r="W62" t="n">
-        <v>0.0009865643223747611</v>
+        <v>0.2657208442687988</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8612899780273438</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6081980466842651</v>
+        <v>0.500888466835022</v>
       </c>
       <c r="W63" t="n">
-        <v>0.06405552476644516</v>
+        <v>0.1298892498016357</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8768360614776611</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6904977560043335</v>
+        <v>0.4851653873920441</v>
       </c>
       <c r="W64" t="n">
-        <v>0.03472196310758591</v>
+        <v>0.1534059196710587</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8781709671020508</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3507773280143738</v>
+        <v>0.4047841429710388</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2781440615653992</v>
+        <v>0.2240950912237167</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3507875502109528</v>
+        <v>0.3992118835449219</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2631047964096069</v>
+        <v>0.2157723903656006</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8782081604003906</v>
       </c>
       <c r="V67" t="n">
-        <v>0.514564037322998</v>
+        <v>0.883551299571991</v>
       </c>
       <c r="W67" t="n">
-        <v>0.132237046957016</v>
+        <v>2.854913691408001e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8893680572509766</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4036197066307068</v>
+        <v>0.870255172252655</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2359514534473419</v>
+        <v>0.0003653023741208017</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8595919609069824</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5606344938278198</v>
+        <v>0.4186238646507263</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0893755704164505</v>
+        <v>0.1944528669118881</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8604397773742676</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4036735594272614</v>
+        <v>0.4095044732093811</v>
       </c>
       <c r="W70" t="n">
-        <v>0.2086353749036789</v>
+        <v>0.2033426463603973</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8752150535583496</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4484338760375977</v>
+        <v>0.5080386400222778</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1821421682834625</v>
+        <v>0.1348185241222382</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8724410533905029</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4032863676548004</v>
+        <v>0.4045953154563904</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2201061248779297</v>
+        <v>0.2188796401023865</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8618340492248535</v>
       </c>
       <c r="V73" t="n">
-        <v>0.6825381517410278</v>
+        <v>0.3992114365100861</v>
       </c>
       <c r="W73" t="n">
-        <v>0.03214702010154724</v>
+        <v>0.2140196859836578</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8569347858428955</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5277000665664673</v>
+        <v>0.4910098314285278</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1083955019712448</v>
+        <v>0.1339010745286942</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8567419052124023</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5034441351890564</v>
+        <v>0.4968388080596924</v>
       </c>
       <c r="W75" t="n">
-        <v>0.124819315969944</v>
+        <v>0.1295302361249924</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8712930679321289</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4036880433559418</v>
+        <v>0.897346019744873</v>
       </c>
       <c r="W76" t="n">
-        <v>0.218654453754425</v>
+        <v>0.0006787562742829323</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>1.038961887359619</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4034280776977539</v>
+        <v>0.8808782696723938</v>
       </c>
       <c r="W77" t="n">
-        <v>0.4039032161235809</v>
+        <v>0.02499043010175228</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8774948120117188</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5038816928863525</v>
+        <v>0.8598173856735229</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1395867615938187</v>
+        <v>0.000312491407385096</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8625481128692627</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3869305849075317</v>
+        <v>0.5133046507835388</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2262120395898819</v>
+        <v>0.121970996260643</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.9121170043945312</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6002374887466431</v>
+        <v>0.8733762502670288</v>
       </c>
       <c r="W80" t="n">
-        <v>0.09726883471012115</v>
+        <v>0.001500846003182232</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8605878353118896</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5413097143173218</v>
+        <v>0.5096917152404785</v>
       </c>
       <c r="W81" t="n">
-        <v>0.1019385159015656</v>
+        <v>0.1231280863285065</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5465860366821289</v>
       </c>
       <c r="V82" t="n">
-        <v>0.9424417018890381</v>
+        <v>0.4125472903251648</v>
       </c>
       <c r="W82" t="n">
-        <v>0.1567017138004303</v>
+        <v>0.0179663859307766</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5210649967193604</v>
       </c>
       <c r="V83" t="n">
-        <v>0.656647801399231</v>
+        <v>0.3972709476947784</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01838269643485546</v>
+        <v>0.01532496698200703</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5170390605926514</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3808989822864532</v>
+        <v>0.3991984724998474</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01853412017226219</v>
+        <v>0.0138864042237401</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5664689540863037</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4484788775444031</v>
+        <v>0.5160237550735474</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0139216585084796</v>
+        <v>0.002544718096032739</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5162448883056641</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4036547243595123</v>
+        <v>0.404498279094696</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01267654541879892</v>
+        <v>0.01248730439692736</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5175998210906982</v>
       </c>
       <c r="V87" t="n">
-        <v>0.4992532730102539</v>
+        <v>0.8736796379089355</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0003365958400536329</v>
+        <v>0.1267928332090378</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5096049308776855</v>
       </c>
       <c r="V88" t="n">
-        <v>0.9462730884552002</v>
+        <v>0.3972524106502533</v>
       </c>
       <c r="W88" t="n">
-        <v>0.1906790733337402</v>
+        <v>0.01262308843433857</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.515902042388916</v>
       </c>
       <c r="V89" t="n">
-        <v>0.466268926858902</v>
+        <v>0.4236501455307007</v>
       </c>
       <c r="W89" t="n">
-        <v>0.002463446231558919</v>
+        <v>0.008510412648320198</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5152759552001953</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4777990877628326</v>
+        <v>0.4036520421504974</v>
       </c>
       <c r="W90" t="n">
-        <v>0.001404515583999455</v>
+        <v>0.01245989836752415</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5347540378570557</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3507833182811737</v>
+        <v>0.5110585689544678</v>
       </c>
       <c r="W91" t="n">
-        <v>0.03384522721171379</v>
+        <v>0.0005614752299152315</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5182080268859863</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4036741256713867</v>
+        <v>0.4010625779628754</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01311801467090845</v>
+        <v>0.01372305583208799</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5175151824951172</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3810511529445648</v>
+        <v>0.8747184276580811</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01862243190407753</v>
+        <v>0.1275941580533981</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5140619277954102</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6548136472702026</v>
+        <v>0.3975623846054077</v>
       </c>
       <c r="W94" t="n">
-        <v>0.01981104724109173</v>
+        <v>0.01357214339077473</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5156261920928955</v>
       </c>
       <c r="V95" t="n">
-        <v>0.8088934421539307</v>
+        <v>0.4010410904884338</v>
       </c>
       <c r="W95" t="n">
-        <v>0.08600568026304245</v>
+        <v>0.01312974561005831</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5681450366973877</v>
       </c>
       <c r="V96" t="n">
-        <v>0.6547068357467651</v>
+        <v>0.4028460085391998</v>
       </c>
       <c r="W96" t="n">
-        <v>0.007492945063859224</v>
+        <v>0.0273237694054842</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5210428237915039</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5609912872314453</v>
+        <v>0.4036262333393097</v>
       </c>
       <c r="W97" t="n">
-        <v>0.001595879788510501</v>
+        <v>0.01378665585070848</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5160708427429199</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6420689821243286</v>
+        <v>0.3972809314727783</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01587553136050701</v>
+        <v>0.01411104295402765</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5164201259613037</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5413910150527954</v>
+        <v>0.8620679974555969</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006235453183762729</v>
+        <v>0.1194724515080452</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5138189792633057</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3524288833141327</v>
+        <v>0.5263404250144958</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02604676224291325</v>
+        <v>0.0001567865983815864</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5259408950805664</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5042273998260498</v>
+        <v>0.8606946468353271</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0004714758833870292</v>
+        <v>0.1120600774884224</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4133501052856445</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5137524604797363</v>
+        <v>0.4860285222530365</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01008063275367022</v>
+        <v>0.005282152444124222</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4049351215362549</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5885483026504517</v>
+        <v>0.8756768703460693</v>
       </c>
       <c r="W103" t="n">
-        <v>0.03371379896998405</v>
+        <v>0.2215977907180786</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3962719440460205</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5019052028656006</v>
+        <v>0.4944111406803131</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01115838531404734</v>
+        <v>0.009631302207708359</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4027221202850342</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3750417828559875</v>
+        <v>0.8688122630119324</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0007662010611966252</v>
+        <v>0.2172400206327438</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3926429748535156</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8101098537445068</v>
+        <v>0.51612788438797</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1742786020040512</v>
+        <v>0.01524852309376001</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3902091979980469</v>
       </c>
       <c r="V107" t="n">
-        <v>0.534324586391449</v>
+        <v>0.8644335269927979</v>
       </c>
       <c r="W107" t="n">
-        <v>0.02076924592256546</v>
+        <v>0.2248887121677399</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3911230564117432</v>
       </c>
       <c r="V108" t="n">
-        <v>0.6983728408813477</v>
+        <v>0.4108433425426483</v>
       </c>
       <c r="W108" t="n">
-        <v>0.09440243244171143</v>
+        <v>0.0003888896899297833</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3926730155944824</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5005732774734497</v>
+        <v>0.5159830451011658</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01164246629923582</v>
+        <v>0.01520536374300718</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.388789176940918</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4036473333835602</v>
+        <v>0.4045162796974182</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0002207648067269474</v>
+        <v>0.0002473417553119361</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3967311382293701</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5324540138244629</v>
+        <v>0.5158990621566772</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01842069812119007</v>
+        <v>0.01420099381357431</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4083321094512939</v>
       </c>
       <c r="V112" t="n">
-        <v>0.6426665782928467</v>
+        <v>0.3972682356834412</v>
       </c>
       <c r="W112" t="n">
-        <v>0.05491264164447784</v>
+        <v>0.0001224092993652448</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3889851570129395</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3524310886859894</v>
+        <v>0.4933554530143738</v>
       </c>
       <c r="W113" t="n">
-        <v>0.00133619992993772</v>
+        <v>0.01089315861463547</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3896899223327637</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4505521655082703</v>
+        <v>0.8862105011940002</v>
       </c>
       <c r="W114" t="n">
-        <v>0.003704212605953217</v>
+        <v>0.246532678604126</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3974769115447998</v>
       </c>
       <c r="V115" t="n">
-        <v>0.8070424795150757</v>
+        <v>0.4045819640159607</v>
       </c>
       <c r="W115" t="n">
-        <v>0.1677439510822296</v>
+        <v>5.04817689943593e-05</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3896780014038086</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9425735473632812</v>
+        <v>0.8692224621772766</v>
       </c>
       <c r="W116" t="n">
-        <v>0.3056934773921967</v>
+        <v>0.2299628853797913</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3897068500518799</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3507703840732574</v>
+        <v>0.4956986606121063</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001516048330813646</v>
+        <v>0.01123426388949156</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4027938842773438</v>
       </c>
       <c r="V118" t="n">
-        <v>0.6563405990600586</v>
+        <v>0.5134227275848389</v>
       </c>
       <c r="W118" t="n">
-        <v>0.06428593397140503</v>
+        <v>0.01223874092102051</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890450000762939</v>
       </c>
       <c r="V119" t="n">
-        <v>0.7828766107559204</v>
+        <v>0.4046460390090942</v>
       </c>
       <c r="W119" t="n">
-        <v>0.1551033407449722</v>
+        <v>0.0002433924091747031</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4516420364379883</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5401060581207275</v>
+        <v>0.546795129776001</v>
       </c>
       <c r="W120" t="n">
-        <v>0.007825883105397224</v>
+        <v>0.009054111316800117</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3880558013916016</v>
       </c>
       <c r="V121" t="n">
-        <v>0.3753827512264252</v>
+        <v>0.4108489155769348</v>
       </c>
       <c r="W121" t="n">
-        <v>0.0001606061996426433</v>
+        <v>0.0005195260746404529</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8737239837646484</v>
       </c>
       <c r="V122" t="n">
-        <v>0.3507837355136871</v>
+        <v>0.8780242800712585</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2734665274620056</v>
+        <v>1.849254840635695e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9216129779815674</v>
       </c>
       <c r="V123" t="n">
-        <v>0.3504441678524017</v>
+        <v>0.4218290448188782</v>
       </c>
       <c r="W123" t="n">
-        <v>0.3262337744235992</v>
+        <v>0.2497839778661728</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9054698944091797</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6904754638671875</v>
+        <v>0.8750542998313904</v>
       </c>
       <c r="W124" t="n">
-        <v>0.04622260481119156</v>
+        <v>0.0009251083829440176</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.869758129119873</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4035959541797638</v>
+        <v>0.4970031082630157</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2173071801662445</v>
+        <v>0.1389463096857071</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8722028732299805</v>
       </c>
       <c r="V126" t="n">
-        <v>0.4505327641963959</v>
+        <v>0.3972546458244324</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1778056770563126</v>
+        <v>0.2255758196115494</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8680789470672607</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5041899085044861</v>
+        <v>0.8670206665992737</v>
       </c>
       <c r="W127" t="n">
-        <v>0.132415235042572</v>
+        <v>1.119957573791908e-06</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9072549343109131</v>
       </c>
       <c r="V128" t="n">
-        <v>0.8000744581222534</v>
+        <v>0.498902440071106</v>
       </c>
       <c r="W128" t="n">
-        <v>0.01148765441030264</v>
+        <v>0.1667517572641373</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8536148071289062</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5768920183181763</v>
+        <v>0.5157347917556763</v>
       </c>
       <c r="W129" t="n">
-        <v>0.07657550275325775</v>
+        <v>0.1141629070043564</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8700978755950928</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6564396619796753</v>
+        <v>0.4897604286670685</v>
       </c>
       <c r="W130" t="n">
-        <v>0.04564983397722244</v>
+        <v>0.1446565687656403</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8654320240020752</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6971142292022705</v>
+        <v>0.8843654990196228</v>
       </c>
       <c r="W131" t="n">
-        <v>0.02833087928593159</v>
+        <v>0.0003584764781408012</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9206140041351318</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8158285617828369</v>
+        <v>0.8646780848503113</v>
       </c>
       <c r="W132" t="n">
-        <v>0.01097998861223459</v>
+        <v>0.003128827083855867</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8768758773803711</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5298932790756226</v>
+        <v>0.4903453886508942</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1203969269990921</v>
+        <v>0.1494058221578598</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8594970703125</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5048280954360962</v>
+        <v>0.8999956250190735</v>
       </c>
       <c r="W134" t="n">
-        <v>0.125790074467659</v>
+        <v>0.001640132977627218</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8773629665374756</v>
       </c>
       <c r="V135" t="n">
-        <v>0.3755414187908173</v>
+        <v>0.8652238845825195</v>
       </c>
       <c r="W135" t="n">
-        <v>0.251824826002121</v>
+        <v>0.0001473573065595701</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.912168025970459</v>
       </c>
       <c r="V136" t="n">
-        <v>0.8059033155441284</v>
+        <v>0.4112909436225891</v>
       </c>
       <c r="W136" t="n">
-        <v>0.01129218842834234</v>
+        <v>0.250877857208252</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8695828914642334</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5887774229049683</v>
+        <v>0.5089825391769409</v>
       </c>
       <c r="W137" t="n">
-        <v>0.07885171473026276</v>
+        <v>0.1300326138734818</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8611979484558105</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6413167715072632</v>
+        <v>0.894399881362915</v>
       </c>
       <c r="W138" t="n">
-        <v>0.04834773018956184</v>
+        <v>0.001102368347346783</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8670740127563477</v>
       </c>
       <c r="V139" t="n">
-        <v>0.9514546394348145</v>
+        <v>0.8992462754249573</v>
       </c>
       <c r="W139" t="n">
-        <v>0.007120090071111917</v>
+        <v>0.001035054447129369</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9231870174407959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.7829492092132568</v>
+        <v>0.4227150678634644</v>
       </c>
       <c r="W140" t="n">
-        <v>0.0196666419506073</v>
+        <v>0.2504721581935883</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8668670654296875</v>
       </c>
       <c r="V141" t="n">
-        <v>0.5138214826583862</v>
+        <v>0.5161958932876587</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1246411800384521</v>
+        <v>0.1229702681303024</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5301880836486816</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9476672410964966</v>
+        <v>0.3992160260677338</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1742888540029526</v>
+        <v>0.01715368032455444</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5204591751098633</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6825827360153198</v>
+        <v>0.3975297212600708</v>
       </c>
       <c r="W143" t="n">
-        <v>0.02628404833376408</v>
+        <v>0.01511165034025908</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5223519802093506</v>
       </c>
       <c r="V144" t="n">
-        <v>0.9478704929351807</v>
+        <v>0.4032578468322754</v>
       </c>
       <c r="W144" t="n">
-        <v>0.1810660064220428</v>
+        <v>0.01418341230601072</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5702438354492188</v>
       </c>
       <c r="V145" t="n">
-        <v>0.6972826719284058</v>
+        <v>0.4943879842758179</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01613886654376984</v>
+        <v>0.005754109937697649</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5222780704498291</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3706989288330078</v>
+        <v>0.8864218592643738</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0229762364178896</v>
+        <v>0.1326006948947906</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5579400062561035</v>
       </c>
       <c r="V147" t="n">
-        <v>0.7831968069076538</v>
+        <v>0.8659297227859497</v>
       </c>
       <c r="W147" t="n">
-        <v>0.05074062570929527</v>
+        <v>0.09485766291618347</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5186409950256348</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3757709860801697</v>
+        <v>0.4033399224281311</v>
       </c>
       <c r="W148" t="n">
-        <v>0.02041183970868587</v>
+        <v>0.01329433731734753</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5216400623321533</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4036241471767426</v>
+        <v>0.411695659160614</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0139277558773756</v>
+        <v>0.01208777166903019</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5189321041107178</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5413862466812134</v>
+        <v>0.5171272158622742</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0005041885306127369</v>
+        <v>3.257621528973687e-06</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5185389518737793</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5413551330566406</v>
+        <v>0.8695661425590515</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0005205781199038029</v>
+        <v>0.1232200860977173</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5196919441223145</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5017967224121094</v>
+        <v>0.4936012029647827</v>
       </c>
       <c r="W152" t="n">
-        <v>0.0003202389634680003</v>
+        <v>0.0006807267782278359</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5183861255645752</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6628100872039795</v>
+        <v>0.5109045505523682</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0208582803606987</v>
+        <v>5.597396375378594e-05</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5178849697113037</v>
       </c>
       <c r="V154" t="n">
-        <v>0.9424210786819458</v>
+        <v>0.5159816741943359</v>
       </c>
       <c r="W154" t="n">
-        <v>0.180230900645256</v>
+        <v>3.622533768066205e-06</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5190579891204834</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3711240291595459</v>
+        <v>0.866321861743927</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02188445627689362</v>
+        <v>0.1205921992659569</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5748291015625</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4506978392601013</v>
+        <v>0.8657839894294739</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01540856994688511</v>
+        <v>0.08465474843978882</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.52199387550354</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5887578725814819</v>
+        <v>0.8732558488845825</v>
       </c>
       <c r="W157" t="n">
-        <v>0.004457431379705667</v>
+        <v>0.1233849748969078</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5196099281311035</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5411652326583862</v>
+        <v>0.8793217539787292</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0004646311572287232</v>
+        <v>0.1293925940990448</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.517909049987793</v>
       </c>
       <c r="V159" t="n">
-        <v>0.9462680816650391</v>
+        <v>0.8799000978469849</v>
       </c>
       <c r="W159" t="n">
-        <v>0.1834914535284042</v>
+        <v>0.1310375183820724</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.513592004776001</v>
       </c>
       <c r="V160" t="n">
-        <v>0.514431357383728</v>
+        <v>0.5155168771743774</v>
       </c>
       <c r="W160" t="n">
-        <v>7.045127858873457e-07</v>
+        <v>3.705133849507547e-06</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5640079975128174</v>
       </c>
       <c r="V161" t="n">
-        <v>0.5322068929672241</v>
+        <v>0.4113759994506836</v>
       </c>
       <c r="W161" t="n">
-        <v>0.001011310261674225</v>
+        <v>0.0232965275645256</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3895590305328369</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6568711996078491</v>
+        <v>0.5171990990638733</v>
       </c>
       <c r="W162" t="n">
-        <v>0.07145579904317856</v>
+        <v>0.01629198715090752</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3904240131378174</v>
       </c>
       <c r="V163" t="n">
-        <v>0.3808321058750153</v>
+        <v>0.4869181513786316</v>
       </c>
       <c r="W163" t="n">
-        <v>9.200468775816262e-05</v>
+        <v>0.009311119094491005</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3974270820617676</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5049394369125366</v>
+        <v>0.8626354336738586</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01155890617519617</v>
+        <v>0.2164188176393509</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3919899463653564</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5043106079101562</v>
+        <v>0.5120643973350525</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01261593122035265</v>
+        <v>0.01441787369549274</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3884119987487793</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7839112281799316</v>
+        <v>0.8712409734725952</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1564196348190308</v>
+        <v>0.2331238240003586</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3938169479370117</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5140033960342407</v>
+        <v>0.8637022972106934</v>
       </c>
       <c r="W167" t="n">
-        <v>0.01444478239864111</v>
+        <v>0.2207922488451004</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3880419731140137</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5136516690254211</v>
+        <v>0.8990846276283264</v>
       </c>
       <c r="W168" t="n">
-        <v>0.01577779650688171</v>
+        <v>0.2611646056175232</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3918697834014893</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6418609619140625</v>
+        <v>0.5159841775894165</v>
       </c>
       <c r="W169" t="n">
-        <v>0.06249558925628662</v>
+        <v>0.01540438272058964</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3917210102081299</v>
       </c>
       <c r="V170" t="n">
-        <v>0.3707364797592163</v>
+        <v>0.8670307993888855</v>
       </c>
       <c r="W170" t="n">
-        <v>0.0004403505299706012</v>
+        <v>0.2259193956851959</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3891420364379883</v>
       </c>
       <c r="V171" t="n">
-        <v>0.654166579246521</v>
+        <v>0.5273877382278442</v>
       </c>
       <c r="W171" t="n">
-        <v>0.07023800909519196</v>
+        <v>0.0191118735820055</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3981530666351318</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5139063596725464</v>
+        <v>0.4982626438140869</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01339882519096136</v>
+        <v>0.0100219277665019</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3937509059906006</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5346115231513977</v>
+        <v>0.8740823864936829</v>
       </c>
       <c r="W173" t="n">
-        <v>0.01984171383082867</v>
+        <v>0.2307183295488358</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3993968963623047</v>
       </c>
       <c r="V174" t="n">
-        <v>0.5374541282653809</v>
+        <v>0.4947853684425354</v>
       </c>
       <c r="W174" t="n">
-        <v>0.01905979961156845</v>
+        <v>0.009098961018025875</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4135229587554932</v>
       </c>
       <c r="V175" t="n">
-        <v>0.9461758136749268</v>
+        <v>0.5159324407577515</v>
       </c>
       <c r="W175" t="n">
-        <v>0.2837190628051758</v>
+        <v>0.01048770174384117</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3927271366119385</v>
       </c>
       <c r="V176" t="n">
-        <v>0.7837048768997192</v>
+        <v>0.8794590830802917</v>
       </c>
       <c r="W176" t="n">
-        <v>0.1528635919094086</v>
+        <v>0.2369079887866974</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4053421020507812</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4037072956562042</v>
+        <v>0.3991959691047668</v>
       </c>
       <c r="W177" t="n">
-        <v>2.672592017916031e-06</v>
+        <v>3.777494930545799e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4009919166564941</v>
       </c>
       <c r="V178" t="n">
-        <v>0.6082247495651245</v>
+        <v>0.5404558181762695</v>
       </c>
       <c r="W178" t="n">
-        <v>0.04294544830918312</v>
+        <v>0.01945018023252487</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3946819305419922</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5144341588020325</v>
+        <v>0.5172126293182373</v>
       </c>
       <c r="W179" t="n">
-        <v>0.01434059627354145</v>
+        <v>0.01501377206295729</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4522020816802979</v>
       </c>
       <c r="V180" t="n">
-        <v>0.5138845443725586</v>
+        <v>0.8926530480384827</v>
       </c>
       <c r="W180" t="n">
-        <v>0.003804726293310523</v>
+        <v>0.1939970552921295</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4426181316375732</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3811658322811127</v>
+        <v>0.8911362290382385</v>
       </c>
       <c r="W181" t="n">
-        <v>0.003776384983211756</v>
+        <v>0.2011684775352478</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8774290084838867</v>
       </c>
       <c r="V182" t="n">
-        <v>0.6540950536727905</v>
+        <v>0.4984555542469025</v>
       </c>
       <c r="W182" t="n">
-        <v>0.04987805709242821</v>
+        <v>0.1436208784580231</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9079790115356445</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5145288705825806</v>
+        <v>0.3975593745708466</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1548030078411102</v>
+        <v>0.260528177022934</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8884279727935791</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6425178050994873</v>
+        <v>0.8684608936309814</v>
       </c>
       <c r="W184" t="n">
-        <v>0.06047181040048599</v>
+        <v>0.000398684263927862</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8677070140838623</v>
       </c>
       <c r="V185" t="n">
-        <v>0.6528067588806152</v>
+        <v>0.3977083563804626</v>
       </c>
       <c r="W185" t="n">
-        <v>0.04618211835622787</v>
+        <v>0.2208987325429916</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8638520240783691</v>
       </c>
       <c r="V186" t="n">
-        <v>0.6567997932434082</v>
+        <v>0.3992482423782349</v>
       </c>
       <c r="W186" t="n">
-        <v>0.04287062585353851</v>
+        <v>0.215856671333313</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8890640735626221</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6549818515777588</v>
+        <v>0.8768166899681091</v>
       </c>
       <c r="W187" t="n">
-        <v>0.05479448661208153</v>
+        <v>0.0001499984064139426</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9203848838806152</v>
       </c>
       <c r="V188" t="n">
-        <v>0.6981637477874756</v>
+        <v>0.8888832926750183</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04938223212957382</v>
+        <v>0.0009923502802848816</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8613359928131104</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5030796527862549</v>
+        <v>0.5160255432128906</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1283476054668427</v>
+        <v>0.1192393079400063</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8645191192626953</v>
       </c>
       <c r="V190" t="n">
-        <v>0.944080114364624</v>
+        <v>0.4010106027126312</v>
       </c>
       <c r="W190" t="n">
-        <v>0.00632995180785656</v>
+        <v>0.2148401439189911</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8686659336090088</v>
       </c>
       <c r="V191" t="n">
-        <v>0.65655517578125</v>
+        <v>0.8627888560295105</v>
       </c>
       <c r="W191" t="n">
-        <v>0.04499097540974617</v>
+        <v>3.454004036029801e-05</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9145469665527344</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5018356442451477</v>
+        <v>0.8670715689659119</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1703306287527084</v>
+        <v>0.002253913320600986</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8666450977325439</v>
       </c>
       <c r="V193" t="n">
-        <v>0.54131019115448</v>
+        <v>0.8927196264266968</v>
       </c>
       <c r="W193" t="n">
-        <v>0.105842798948288</v>
+        <v>0.0006798810209147632</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8691380023956299</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4505667388439178</v>
+        <v>0.5157464742660522</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1752019077539444</v>
+        <v>0.1248855739831924</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8609139919281006</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6528611183166504</v>
+        <v>0.4097931981086731</v>
       </c>
       <c r="W195" t="n">
-        <v>0.04328599944710732</v>
+        <v>0.2035099714994431</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9102509021759033</v>
       </c>
       <c r="V196" t="n">
-        <v>0.5371879935264587</v>
+        <v>0.4990363717079163</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1391759365797043</v>
+        <v>0.1690973937511444</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8614652156829834</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4032191634178162</v>
+        <v>0.3972609043121338</v>
       </c>
       <c r="W197" t="n">
-        <v>0.2099894434213638</v>
+        <v>0.2154856473207474</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8702621459960938</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3523913621902466</v>
+        <v>0.8635857701301575</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2681901454925537</v>
+        <v>4.457399336388335e-05</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8611359596252441</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6420724391937256</v>
+        <v>0.8941426873207092</v>
       </c>
       <c r="W199" t="n">
-        <v>0.04798882454633713</v>
+        <v>0.001089444034732878</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.922266960144043</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4778375327587128</v>
+        <v>0.4929168224334717</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1975175142288208</v>
+        <v>0.1843415349721909</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8660149574279785</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5031870007514954</v>
+        <v>0.3972610831260681</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1316441297531128</v>
+        <v>0.2197301983833313</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5172791481018066</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6720939874649048</v>
+        <v>0.872910737991333</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02396763488650322</v>
+        <v>0.1264738291501999</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5152678489685059</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5760998725891113</v>
+        <v>0.8679831624031067</v>
       </c>
       <c r="W203" t="n">
-        <v>0.003700535045936704</v>
+        <v>0.1244080886244774</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5202019214630127</v>
       </c>
       <c r="V204" t="n">
-        <v>0.504324197769165</v>
+        <v>0.4881889522075653</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0002521021233405918</v>
+        <v>0.001024830155074596</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5655310153961182</v>
       </c>
       <c r="V205" t="n">
-        <v>0.8098763227462769</v>
+        <v>0.3977090716362</v>
       </c>
       <c r="W205" t="n">
-        <v>0.05970462784171104</v>
+        <v>0.02816420421004295</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5185132026672363</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4036073684692383</v>
+        <v>0.5160328149795532</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01320335082709789</v>
+        <v>6.152323294372763e-06</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5197618007659912</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5137119293212891</v>
+        <v>0.8688158392906189</v>
       </c>
       <c r="W207" t="n">
-        <v>3.660094444057904e-05</v>
+        <v>0.1218387186527252</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5155971050262451</v>
       </c>
       <c r="V208" t="n">
-        <v>0.3796856999397278</v>
+        <v>0.8652254939079285</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01847190968692303</v>
+        <v>0.1222400069236755</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5225050449371338</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5373629331588745</v>
+        <v>0.507950484752655</v>
       </c>
       <c r="W209" t="n">
-        <v>0.0002207568468293175</v>
+        <v>0.0002118352276738733</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5176210403442383</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6432181596755981</v>
+        <v>0.4033213257789612</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01577463559806347</v>
+        <v>0.01306442450731993</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.519507884979248</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5039169788360596</v>
+        <v>0.8797510266304016</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0002430763561278582</v>
+        <v>0.1297751218080521</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5230588912963867</v>
       </c>
       <c r="V212" t="n">
-        <v>0.7828408479690552</v>
+        <v>0.8666884899139404</v>
       </c>
       <c r="W212" t="n">
-        <v>0.06748666614294052</v>
+        <v>0.1180813014507294</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6525709629058838</v>
+        <v>0.507020115852356</v>
       </c>
       <c r="W213" t="n">
-        <v>0.01763263717293739</v>
+        <v>0.0001628917234484106</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5210931301116943</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5373797416687012</v>
+        <v>0.8600425124168396</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0002652537077665329</v>
+        <v>0.114886686205864</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5216929912567139</v>
       </c>
       <c r="V215" t="n">
-        <v>0.3503713309764862</v>
+        <v>0.869203507900238</v>
       </c>
       <c r="W215" t="n">
-        <v>0.02935111150145531</v>
+        <v>0.1207635626196861</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5793759822845459</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5141499042510986</v>
+        <v>0.403708428144455</v>
       </c>
       <c r="W216" t="n">
-        <v>0.004254441242665052</v>
+        <v>0.0308590903878212</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5223038196563721</v>
       </c>
       <c r="V217" t="n">
-        <v>0.6567727327346802</v>
+        <v>0.4990288019180298</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01808188855648041</v>
+        <v>0.0005417264765128493</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5224268436431885</v>
       </c>
       <c r="V218" t="n">
-        <v>0.7829432487487793</v>
+        <v>0.5136041641235352</v>
       </c>
       <c r="W218" t="n">
-        <v>0.06786879897117615</v>
+        <v>7.783967157592997e-05</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5215280055999756</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5043676495552063</v>
+        <v>0.872688353061676</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002944778243545443</v>
+        <v>0.1233135908842087</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.520237922668457</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5015835762023926</v>
+        <v>0.8724794387817383</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0003479846345726401</v>
+        <v>0.1240740865468979</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5750319957733154</v>
       </c>
       <c r="V221" t="n">
-        <v>0.8160734176635742</v>
+        <v>0.4100055694580078</v>
       </c>
       <c r="W221" t="n">
-        <v>0.05810096859931946</v>
+        <v>0.02723372168838978</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3853199481964111</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5373688936233521</v>
+        <v>0.8984835147857666</v>
       </c>
       <c r="W222" t="n">
-        <v>0.023118881508708</v>
+        <v>0.2633368372917175</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3860340118408203</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4662267863750458</v>
+        <v>0.5077115297317505</v>
       </c>
       <c r="W223" t="n">
-        <v>0.006430881097912788</v>
+        <v>0.01480541843920946</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3890368938446045</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4998745322227478</v>
+        <v>0.4099839627742767</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01228498201817274</v>
+        <v>0.0004387797089293599</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3898341655731201</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4776301085948944</v>
+        <v>0.4032900929450989</v>
       </c>
       <c r="W225" t="n">
-        <v>0.007708127610385418</v>
+        <v>0.0001810619869502261</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3917610645294189</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5145039558410645</v>
+        <v>0.8744264245033264</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01506581716239452</v>
+        <v>0.2329658567905426</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3967130184173584</v>
       </c>
       <c r="V227" t="n">
-        <v>0.6834505796432495</v>
+        <v>0.4226805567741394</v>
       </c>
       <c r="W227" t="n">
-        <v>0.08221843093633652</v>
+        <v>0.0006743130506947637</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3917720317840576</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3507842719554901</v>
+        <v>0.3972544074058533</v>
       </c>
       <c r="W228" t="n">
-        <v>0.001679996494203806</v>
+        <v>3.005644248332828e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4049980640411377</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5413764715194702</v>
+        <v>0.8922460675239563</v>
       </c>
       <c r="W229" t="n">
-        <v>0.01859907060861588</v>
+        <v>0.2374106198549271</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3933031558990479</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3706969916820526</v>
+        <v>0.8822782635688782</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0005110386409796774</v>
+        <v>0.2390966564416885</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3891949653625488</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3761706054210663</v>
+        <v>0.3972459435462952</v>
       </c>
       <c r="W231" t="n">
-        <v>0.000169633945915848</v>
+        <v>6.481824675574899e-05</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3924939632415771</v>
       </c>
       <c r="V232" t="n">
-        <v>0.514474630355835</v>
+        <v>0.5158102512359619</v>
       </c>
       <c r="W232" t="n">
-        <v>0.01487928349524736</v>
+        <v>0.01520690694451332</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3936381340026855</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5154380798339844</v>
+        <v>0.5159671902656555</v>
       </c>
       <c r="W233" t="n">
-        <v>0.0148352263495326</v>
+        <v>0.01496439799666405</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3953220844268799</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5342714190483093</v>
+        <v>0.3972568511962891</v>
       </c>
       <c r="W234" t="n">
-        <v>0.01930691674351692</v>
+        <v>3.743322395166615e-06</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3943848609924316</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5138216018676758</v>
+        <v>0.4109285771846771</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01426513493061066</v>
+        <v>0.0002736945461947471</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963310718536377</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6548312902450562</v>
+        <v>0.5141214728355408</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0668223649263382</v>
+        <v>0.01387457828968763</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3928289413452148</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5057560205459595</v>
+        <v>0.8730406165122986</v>
       </c>
       <c r="W237" t="n">
-        <v>0.01275252550840378</v>
+        <v>0.2306032478809357</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898689746856689</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4035888314247131</v>
+        <v>0.4061891138553619</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0001882344658952206</v>
+        <v>0.0002663469349499792</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3886690139770508</v>
       </c>
       <c r="V239" t="n">
-        <v>0.4035950005054474</v>
+        <v>0.8620249032974243</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0002227850782219321</v>
+        <v>0.2240657955408096</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4348142147064209</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4035879671573639</v>
+        <v>0.5158262848854065</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0009750785538926721</v>
+        <v>0.006562955677509308</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3948988914489746</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3753783702850342</v>
+        <v>0.8797447681427002</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0003810507478192449</v>
+        <v>0.235075518488884</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9513580799102783</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5413792133331299</v>
+        <v>0.5124709606170654</v>
       </c>
       <c r="W242" t="n">
-        <v>0.168082669377327</v>
+        <v>0.1926219016313553</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9071230888366699</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6429613828659058</v>
+        <v>0.8542538285255432</v>
       </c>
       <c r="W243" t="n">
-        <v>0.06978140771389008</v>
+        <v>0.002795158652588725</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9055731296539307</v>
       </c>
       <c r="V244" t="n">
-        <v>0.3502950370311737</v>
+        <v>0.4038194417953491</v>
       </c>
       <c r="W244" t="n">
-        <v>0.3083337247371674</v>
+        <v>0.2517567574977875</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8758578300476074</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6825956106185913</v>
+        <v>0.5088248252868652</v>
       </c>
       <c r="W245" t="n">
-        <v>0.03735028579831123</v>
+        <v>0.1347132325172424</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8632829189300537</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8103859424591064</v>
+        <v>0.4988842904567719</v>
       </c>
       <c r="W246" t="n">
-        <v>0.002798090223222971</v>
+        <v>0.132786363363266</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8680729866027832</v>
       </c>
       <c r="V247" t="n">
-        <v>0.3507807850837708</v>
+        <v>0.8737519383430481</v>
       </c>
       <c r="W247" t="n">
-        <v>0.2675912082195282</v>
+        <v>3.225049294997007e-05</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9254651069641113</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3507724404335022</v>
+        <v>0.399364709854126</v>
       </c>
       <c r="W248" t="n">
-        <v>0.3302716612815857</v>
+        <v>0.2767816185951233</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8758151531219482</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5040719509124756</v>
+        <v>0.8910318613052368</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1381930112838745</v>
+        <v>0.0002315482124686241</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.873121976852417</v>
       </c>
       <c r="V250" t="n">
-        <v>0.4662189185619354</v>
+        <v>0.8730400204658508</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1655700951814651</v>
+        <v>6.716849298982197e-09</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8866560459136963</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6548995971679688</v>
+        <v>0.5067293643951416</v>
       </c>
       <c r="W251" t="n">
-        <v>0.05371105298399925</v>
+        <v>0.1443442851305008</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9379360675811768</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5344752669334412</v>
+        <v>0.4292806386947632</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1627806127071381</v>
+        <v>0.2587303519248962</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8752748966217041</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5371123552322388</v>
+        <v>0.8715054392814636</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1143539026379585</v>
+        <v>1.420880835212301e-05</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8672950267791748</v>
       </c>
       <c r="V254" t="n">
-        <v>0.8205782175064087</v>
+        <v>0.51630699634552</v>
       </c>
       <c r="W254" t="n">
-        <v>0.002182460157200694</v>
+        <v>0.1231926009058952</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8701579570770264</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507795631885529</v>
+        <v>0.5160542726516724</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2697539329528809</v>
+        <v>0.1253894120454788</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9389669895172119</v>
       </c>
       <c r="V256" t="n">
-        <v>0.8084061145782471</v>
+        <v>0.8984674215316772</v>
       </c>
       <c r="W256" t="n">
-        <v>0.01704614236950874</v>
+        <v>0.001640215050429106</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8714439868927002</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4036531448364258</v>
+        <v>0.4986430406570435</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2188282757997513</v>
+        <v>0.1389805525541306</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8583431243896484</v>
       </c>
       <c r="V258" t="n">
-        <v>0.9424769878387451</v>
+        <v>0.5162631273269653</v>
       </c>
       <c r="W258" t="n">
-        <v>0.007078506983816624</v>
+        <v>0.1170187219977379</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8718819618225098</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3753085136413574</v>
+        <v>0.5002831220626831</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2465851902961731</v>
+        <v>0.1380856931209564</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9238181114196777</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4085472524166107</v>
+        <v>0.5160319805145264</v>
       </c>
       <c r="W260" t="n">
-        <v>0.2655040323734283</v>
+        <v>0.1662895232439041</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8713071346282959</v>
       </c>
       <c r="V261" t="n">
-        <v>0.5041878223419189</v>
+        <v>0.3972818851470947</v>
       </c>
       <c r="W261" t="n">
-        <v>0.1347765922546387</v>
+        <v>0.2246999442577362</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.524357795715332</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5607798099517822</v>
+        <v>0.8737616539001465</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001326563069596887</v>
+        <v>0.1220830529928207</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5357398986816406</v>
       </c>
       <c r="V263" t="n">
-        <v>0.6413520574569702</v>
+        <v>0.5172966718673706</v>
       </c>
       <c r="W263" t="n">
-        <v>0.01115392800420523</v>
+        <v>0.0003401526191737503</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5208039283752441</v>
       </c>
       <c r="V264" t="n">
-        <v>0.7820807695388794</v>
+        <v>0.8715557456016541</v>
       </c>
       <c r="W264" t="n">
-        <v>0.06826558709144592</v>
+        <v>0.1230268403887749</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5754790306091309</v>
       </c>
       <c r="V265" t="n">
-        <v>0.8001948595046997</v>
+        <v>0.4035304188728333</v>
       </c>
       <c r="W265" t="n">
-        <v>0.05049720406532288</v>
+        <v>0.02956632524728775</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5243031978607178</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4036560952663422</v>
+        <v>0.4112383127212524</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01455572340637445</v>
+        <v>0.01278366800397635</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5236918926239014</v>
       </c>
       <c r="V267" t="n">
-        <v>0.5615758895874023</v>
+        <v>0.4026117920875549</v>
       </c>
       <c r="W267" t="n">
-        <v>0.001435197191312909</v>
+        <v>0.01466039102524519</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5233151912689209</v>
       </c>
       <c r="V268" t="n">
-        <v>0.5416070222854614</v>
+        <v>0.5404838919639587</v>
       </c>
       <c r="W268" t="n">
-        <v>0.0003345910809002817</v>
+        <v>0.0002947642933577299</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5235910415649414</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4484035670757294</v>
+        <v>0.5112316012382507</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00565315643325448</v>
+        <v>0.0001527557615190744</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5371921062469482</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8052781820297241</v>
+        <v>0.4017193019390106</v>
       </c>
       <c r="W270" t="n">
-        <v>0.07187014073133469</v>
+        <v>0.01835288107395172</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5254440307617188</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5140922069549561</v>
+        <v>0.3992539048194885</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0001288639032281935</v>
+        <v>0.01592394709587097</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5326879024505615</v>
       </c>
       <c r="V272" t="n">
-        <v>0.7834850549697876</v>
+        <v>0.4211916625499725</v>
       </c>
       <c r="W272" t="n">
-        <v>0.06289920955896378</v>
+        <v>0.01243141107261181</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5249629020690918</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5137795209884644</v>
+        <v>0.4218020439147949</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0001250680070370436</v>
+        <v>0.01064216252416372</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5662798881530762</v>
       </c>
       <c r="V274" t="n">
-        <v>0.672019362449646</v>
+        <v>0.8787949085235596</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01118083670735359</v>
+        <v>0.09766563773155212</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.526979923248291</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4776211678981781</v>
+        <v>0.3972814083099365</v>
       </c>
       <c r="W275" t="n">
-        <v>0.002436286769807339</v>
+        <v>0.01682170480489731</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5211200714111328</v>
       </c>
       <c r="V276" t="n">
-        <v>0.5747835636138916</v>
+        <v>0.8784657716751099</v>
       </c>
       <c r="W276" t="n">
-        <v>0.00287977047264576</v>
+        <v>0.1276959478855133</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5230538845062256</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5342543721199036</v>
+        <v>0.898470938205719</v>
       </c>
       <c r="W277" t="n">
-        <v>0.0001254509261343628</v>
+        <v>0.1409379690885544</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5211920738220215</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8100709915161133</v>
+        <v>0.5159165859222412</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0834510326385498</v>
+        <v>2.783077252388466e-05</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.518333911895752</v>
       </c>
       <c r="V279" t="n">
-        <v>0.9439630508422852</v>
+        <v>0.402164101600647</v>
       </c>
       <c r="W279" t="n">
-        <v>0.1811601668596268</v>
+        <v>0.0134954247623682</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5183570384979248</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3810720145702362</v>
+        <v>0.8634033799171448</v>
       </c>
       <c r="W280" t="n">
-        <v>0.01884717866778374</v>
+        <v>0.1190569773316383</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5770409107208252</v>
       </c>
       <c r="V281" t="n">
-        <v>0.654965877532959</v>
+        <v>0.8661249279975891</v>
       </c>
       <c r="W281" t="n">
-        <v>0.006072300486266613</v>
+        <v>0.08356957137584686</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4212188720703125</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3507856726646423</v>
+        <v>0.8637906312942505</v>
       </c>
       <c r="W282" t="n">
-        <v>0.004960835445672274</v>
+        <v>0.1958697587251663</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3988840579986572</v>
       </c>
       <c r="V283" t="n">
-        <v>0.375304102897644</v>
+        <v>0.86627596616745</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0005560143035836518</v>
+        <v>0.2184551954269409</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3965771198272705</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5139825344085693</v>
+        <v>0.4945508539676666</v>
       </c>
       <c r="W284" t="n">
-        <v>0.01378403138369322</v>
+        <v>0.009598852135241032</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3919050693511963</v>
       </c>
       <c r="V285" t="n">
-        <v>0.381181538105011</v>
+        <v>0.4119415283203125</v>
       </c>
       <c r="W285" t="n">
-        <v>0.0001149941235780716</v>
+        <v>0.0004014596925117075</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3981080055236816</v>
       </c>
       <c r="V286" t="n">
-        <v>0.7827135324478149</v>
+        <v>0.8708956241607666</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1479214131832123</v>
+        <v>0.2235281318426132</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4517161846160889</v>
       </c>
       <c r="V287" t="n">
-        <v>0.3756047487258911</v>
+        <v>0.5094105005264282</v>
       </c>
       <c r="W287" t="n">
-        <v>0.005792950745671988</v>
+        <v>0.00332863419316709</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3978021144866943</v>
       </c>
       <c r="V288" t="n">
-        <v>0.7837903499603271</v>
+        <v>0.3972730040550232</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1489869207143784</v>
+        <v>2.799578453505092e-07</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4025349617004395</v>
       </c>
       <c r="V289" t="n">
-        <v>0.6722632646560669</v>
+        <v>0.867576539516449</v>
       </c>
       <c r="W289" t="n">
-        <v>0.07275335490703583</v>
+        <v>0.2162636667490005</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3955140113830566</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5370340347290039</v>
+        <v>0.5142109990119934</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02002791687846184</v>
+        <v>0.01408897526562214</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3961632251739502</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8079757690429688</v>
+        <v>0.488525390625</v>
       </c>
       <c r="W291" t="n">
-        <v>0.169589564204216</v>
+        <v>0.008530769497156143</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.403317928314209</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4662931859493256</v>
+        <v>0.4032832086086273</v>
       </c>
       <c r="W292" t="n">
-        <v>0.003965883050113916</v>
+        <v>1.205457955677502e-09</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3942599296569824</v>
       </c>
       <c r="V293" t="n">
-        <v>0.9515811204910278</v>
+        <v>0.8700990676879883</v>
       </c>
       <c r="W293" t="n">
-        <v>0.3106068968772888</v>
+        <v>0.2264228910207748</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3938801288604736</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6975404024124146</v>
+        <v>0.8746304512023926</v>
       </c>
       <c r="W294" t="n">
-        <v>0.09220956265926361</v>
+        <v>0.2311208695173264</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3980469703674316</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5279320478439331</v>
+        <v>0.4908726215362549</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01687013357877731</v>
+        <v>0.00861660111695528</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3912150859832764</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4033709764480591</v>
+        <v>0.8713444471359253</v>
       </c>
       <c r="W296" t="n">
-        <v>0.0001477656769566238</v>
+        <v>0.2305241972208023</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973691463470459</v>
       </c>
       <c r="V297" t="n">
-        <v>0.7840772867202759</v>
+        <v>0.5123654007911682</v>
       </c>
       <c r="W297" t="n">
-        <v>0.1495431810617447</v>
+        <v>0.01322413887828588</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4065189361572266</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6825319528579712</v>
+        <v>0.4930894672870636</v>
       </c>
       <c r="W298" t="n">
-        <v>0.07618318498134613</v>
+        <v>0.007494457066059113</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3926479816436768</v>
       </c>
       <c r="V299" t="n">
-        <v>0.3874495327472687</v>
+        <v>0.5006848573684692</v>
       </c>
       <c r="W299" t="n">
-        <v>2.702387064346112e-05</v>
+        <v>0.01167196687310934</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3993229866027832</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4035847187042236</v>
+        <v>0.5117459297180176</v>
       </c>
       <c r="W300" t="n">
-        <v>1.816235999285709e-05</v>
+        <v>0.01263891812413931</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3974528312683105</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5413761734962463</v>
+        <v>0.4048371613025665</v>
       </c>
       <c r="W301" t="n">
-        <v>0.0207139290869236</v>
+        <v>5.452832920127548e-05</v>
       </c>
     </row>
     <row r="302" spans="1:23">
